--- a/biology/Botanique/Echinops/Echinops.xlsx
+++ b/biology/Botanique/Echinops/Echinops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Echinops (les échinops parfois appelés oursins) regroupe quelques espèces de plantes à fleurs appartenant à la famille des Astéracées (ou Composées).
 Le nom signifie en grec « qui a l'apparence d'un hérisson » et correspond à l'aspect des inflorescences, sortes de globes à l'aspect hérissé souvent comparés aussi aux oursins.
@@ -513,7 +525,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes érigées à tige non ailée, glabre ou à poils appliqués, souvent blanche. Feuilles alternes très découpées à lobes épineux, les supérieures souvent engainantes. Inflorescence sphérique formée de très nombreux capitules comportant chacun une seule fleur tubulée à cinq lobes entourée de bractées persistantes.
 Surtout méditerranéens ou croissant dans les steppes d'Europe centrale et de l'Est, comme Echinops exaltatus, originaire d'Europe centrale, et Echinops ruthenicus originaire du sud de la Russie, les echinops apprécient les lieux ensoleillés, secs et rocheux.
@@ -545,7 +559,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Echinops albicaulis Kar. &amp; Kir.
@@ -564,7 +580,7 @@
 Echinops spinosissimus Turra
 Echinops strigosus L.
 Echinops × pellenzianus Hugin &amp; W.Lohmeyer
-Echinops viscosus Reichenb [1]</t>
+Echinops viscosus Reichenb </t>
         </is>
       </c>
     </row>
